--- a/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design Volume From Field/Design_volume.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design Volume From Field/Design_volume.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="Block_cost_comparision" sheetId="9" r:id="rId8"/>
     <sheet name="Back_calcualtion_protective_wor" sheetId="5" r:id="rId9"/>
     <sheet name="Unit_Cost_Calcualtion" sheetId="10" r:id="rId10"/>
+    <sheet name="volume_comparison" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="187">
   <si>
     <t>Name</t>
   </si>
@@ -553,12 +554,48 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>DPP Drawing</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Geobag/m(P)</t>
+  </si>
+  <si>
+    <t>CC Block/m(P)</t>
+  </si>
+  <si>
+    <t>Total Volume/m(P)</t>
+  </si>
+  <si>
+    <t>Geobag/m(D)</t>
+  </si>
+  <si>
+    <t>CC Block/m(D)</t>
+  </si>
+  <si>
+    <t>Total Volume/m(D)</t>
+  </si>
+  <si>
+    <t>Total Volume As Per DPP</t>
+  </si>
+  <si>
+    <t>Total Volume Provided</t>
+  </si>
+  <si>
+    <t>Fulhata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -580,7 +617,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,6 +651,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -810,7 +853,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -873,7 +924,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -908,7 +959,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1085,7 +1136,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1097,9 +1148,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1114,20 +1165,20 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
-    <col min="7" max="7" width="35.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
-    <col min="17" max="17" width="19.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="5:18">
@@ -1652,22 +1703,768 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="47"/>
+    <col min="5" max="5" width="14.42578125" style="47" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="47" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>141</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2-B2</f>
+        <v>141</v>
+      </c>
+      <c r="E2" s="21">
+        <v>19</v>
+      </c>
+      <c r="F2" s="21">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2">
+        <f>SUM(E2:F2)</f>
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="2">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2">
+        <f>I2+J2</f>
+        <v>38</v>
+      </c>
+      <c r="L2" s="2">
+        <v>38</v>
+      </c>
+      <c r="M2" s="2">
+        <f>G2</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="21">
+        <v>141</v>
+      </c>
+      <c r="C3" s="21">
+        <v>651</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D17" si="0">C3-B3</f>
+        <v>510</v>
+      </c>
+      <c r="E3" s="21">
+        <v>19</v>
+      </c>
+      <c r="F3" s="21">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2">
+        <f>SUM(E3:F3)</f>
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2">
+        <f>G3</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="21">
+        <v>651</v>
+      </c>
+      <c r="C4" s="21">
+        <v>921</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="E4" s="21">
+        <v>22.5</v>
+      </c>
+      <c r="F4" s="21">
+        <v>23.5</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G17" si="1">SUM(E4:F4)</f>
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" s="2">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4" si="2">I4+J4</f>
+        <v>42</v>
+      </c>
+      <c r="L4" s="2">
+        <v>42</v>
+      </c>
+      <c r="M4" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="21">
+        <v>921</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1036</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="E5" s="21">
+        <v>22.5</v>
+      </c>
+      <c r="F5" s="21">
+        <v>23.5</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1036</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1446</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+      <c r="E6" s="21">
+        <v>19</v>
+      </c>
+      <c r="F6" s="21">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" s="2">
+        <v>21</v>
+      </c>
+      <c r="J6" s="2">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2">
+        <v>42</v>
+      </c>
+      <c r="L6" s="2">
+        <f>K6</f>
+        <v>42</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" ref="M6:M17" si="3">G6</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="21">
+        <v>1446</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1656</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="E7" s="21">
+        <v>19</v>
+      </c>
+      <c r="F7" s="21">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="21">
+        <v>1656</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1797</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E8" s="21">
+        <v>19</v>
+      </c>
+      <c r="F8" s="21">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I8" s="2">
+        <v>21</v>
+      </c>
+      <c r="J8" s="2">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2">
+        <v>42</v>
+      </c>
+      <c r="L8" s="2">
+        <f>K8</f>
+        <v>42</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="21">
+        <v>1797</v>
+      </c>
+      <c r="C9" s="21">
+        <v>2400</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>603</v>
+      </c>
+      <c r="E9" s="21">
+        <v>21</v>
+      </c>
+      <c r="F9" s="21">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="21">
+        <v>2400</v>
+      </c>
+      <c r="C10" s="21">
+        <v>2700</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="E10" s="21">
+        <v>25.5</v>
+      </c>
+      <c r="F10" s="21">
+        <v>20.5</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="47" customFormat="1">
+      <c r="A11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="21">
+        <v>2700</v>
+      </c>
+      <c r="C11" s="21">
+        <v>3262</v>
+      </c>
+      <c r="D11" s="21">
+        <f t="shared" si="0"/>
+        <v>562</v>
+      </c>
+      <c r="E11" s="21">
+        <v>19</v>
+      </c>
+      <c r="F11" s="21">
+        <v>20</v>
+      </c>
+      <c r="G11" s="21">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="21">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="50" customFormat="1">
+      <c r="A12" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="45">
+        <v>2100</v>
+      </c>
+      <c r="C12" s="45">
+        <v>3600</v>
+      </c>
+      <c r="D12" s="45">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="E12" s="45">
+        <v>27</v>
+      </c>
+      <c r="F12" s="45">
+        <v>21</v>
+      </c>
+      <c r="G12" s="45">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="47" customFormat="1">
+      <c r="A13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0</v>
+      </c>
+      <c r="C13" s="21">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="21">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="E13" s="21">
+        <v>25</v>
+      </c>
+      <c r="F13" s="21">
+        <v>20</v>
+      </c>
+      <c r="G13" s="21">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="I13" s="21">
+        <v>21.5</v>
+      </c>
+      <c r="J13" s="21">
+        <v>21.5</v>
+      </c>
+      <c r="K13" s="21">
+        <f>I13+J13</f>
+        <v>43</v>
+      </c>
+      <c r="L13" s="21">
+        <f t="shared" ref="L13" si="4">K13</f>
+        <v>43</v>
+      </c>
+      <c r="M13" s="21">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="47" customFormat="1">
+      <c r="A14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="21">
+        <v>2000</v>
+      </c>
+      <c r="C14" s="21">
+        <v>4500</v>
+      </c>
+      <c r="D14" s="21">
+        <f t="shared" ref="D14" si="5">C14-B14</f>
+        <v>2500</v>
+      </c>
+      <c r="E14" s="21">
+        <v>25</v>
+      </c>
+      <c r="F14" s="21">
+        <v>20</v>
+      </c>
+      <c r="G14" s="21">
+        <f t="shared" ref="G14" si="6">SUM(E14:F14)</f>
+        <v>45</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="I14" s="21">
+        <v>21.5</v>
+      </c>
+      <c r="J14" s="21">
+        <v>21.5</v>
+      </c>
+      <c r="K14" s="21">
+        <f>I14+J14</f>
+        <v>43</v>
+      </c>
+      <c r="L14" s="21">
+        <f t="shared" ref="L14" si="7">K14</f>
+        <v>43</v>
+      </c>
+      <c r="M14" s="21">
+        <f t="shared" ref="M14" si="8">G14</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="49">
+        <v>0</v>
+      </c>
+      <c r="C15" s="49">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="49">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="E15" s="49">
+        <v>30</v>
+      </c>
+      <c r="F15" s="49">
+        <v>24</v>
+      </c>
+      <c r="G15" s="49">
+        <f>SUM(E15:F15)</f>
+        <v>54</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="I15" s="49">
+        <v>29.5</v>
+      </c>
+      <c r="J15" s="49">
+        <v>22</v>
+      </c>
+      <c r="K15" s="49">
+        <f t="shared" ref="K15:K17" si="9">I15+J15</f>
+        <v>51.5</v>
+      </c>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="47" customFormat="1">
+      <c r="A16" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="21">
+        <v>0</v>
+      </c>
+      <c r="C16" s="21">
+        <v>500</v>
+      </c>
+      <c r="D16" s="51">
+        <f t="shared" ref="D16" si="10">C16-B16</f>
+        <v>500</v>
+      </c>
+      <c r="E16" s="21">
+        <v>22</v>
+      </c>
+      <c r="F16" s="21">
+        <v>17</v>
+      </c>
+      <c r="G16" s="21">
+        <f t="shared" ref="G16" si="11">SUM(E16:F16)</f>
+        <v>39</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="I16" s="21">
+        <v>22</v>
+      </c>
+      <c r="J16" s="21">
+        <v>15.5</v>
+      </c>
+      <c r="K16" s="21">
+        <f t="shared" si="9"/>
+        <v>37.5</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21">
+        <f t="shared" ref="M16" si="12">G16</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="47" customFormat="1">
+      <c r="A17" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="21">
+        <v>500</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="51">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="E17" s="21">
+        <v>22</v>
+      </c>
+      <c r="F17" s="21">
+        <v>17</v>
+      </c>
+      <c r="G17" s="21">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="I17" s="21">
+        <v>15</v>
+      </c>
+      <c r="J17" s="21">
+        <v>15</v>
+      </c>
+      <c r="K17" s="21">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="D18" s="24"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="D19" s="24"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="D20" s="24"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="D21" s="24"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="D22" s="24"/>
+      <c r="G22" s="24"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H17">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1943,26 +2740,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="12"/>
-    <col min="5" max="5" width="15.6640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="12"/>
-    <col min="7" max="7" width="14.77734375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" style="12"/>
+    <col min="5" max="5" width="15.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="12"/>
+    <col min="7" max="7" width="14.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="11.109375" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -3434,15 +4231,15 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4329,16 +5126,16 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5194,13 +5991,13 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -5219,12 +6016,12 @@
       <c r="F1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:10">
       <c r="F2" s="1"/>
@@ -5408,11 +6205,11 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5">
@@ -5626,19 +6423,19 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="31.77734375" customWidth="1"/>
-    <col min="7" max="7" width="35.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
-    <col min="17" max="17" width="19.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="6:17">
@@ -5857,9 +6654,9 @@
       <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
